--- a/Dashboard/SalesDashBoard.xlsx
+++ b/Dashboard/SalesDashBoard.xlsx
@@ -3356,7 +3356,7 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
     <numFmt numFmtId="165" formatCode="mmmm yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3367,6 +3367,10 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3397,7 +3401,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3423,6 +3427,9 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="165" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -56048,9 +56055,6 @@
       <c r="F1" s="4" t="s">
         <v>1060</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>1061</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
@@ -56074,9 +56078,6 @@
         <f t="shared" ref="F2:F1001" si="2">D2 / B2</f>
         <v>50</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>1062</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
@@ -56100,9 +56101,6 @@
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>1024</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
@@ -56126,9 +56124,6 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>1056</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="6" t="s">
@@ -56152,9 +56147,6 @@
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>1018</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
@@ -56178,9 +56170,6 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>1059</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="6" t="s">
@@ -56204,9 +56193,6 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>1063</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
@@ -56230,9 +56216,6 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>1064</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
@@ -56279,9 +56262,6 @@
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>1028</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="6" t="s">
@@ -56305,9 +56285,6 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>1065</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="6" t="s">
@@ -56354,7 +56331,6 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="H13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="6" t="s">
@@ -58356,6 +58332,15 @@
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
+      <c r="H100" s="11" t="s">
+        <v>1061</v>
+      </c>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11"/>
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="11"/>
     </row>
     <row r="101">
       <c r="A101" s="6" t="s">
@@ -58379,6 +58364,15 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11" t="s">
+        <v>1062</v>
+      </c>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11"/>
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="11"/>
     </row>
     <row r="102">
       <c r="A102" s="6" t="s">
@@ -58402,6 +58396,15 @@
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11" t="s">
+        <v>1024</v>
+      </c>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
     </row>
     <row r="103">
       <c r="A103" s="6" t="s">
@@ -58425,6 +58428,15 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
     </row>
     <row r="104">
       <c r="A104" s="6" t="s">
@@ -58448,6 +58460,15 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11" t="s">
+        <v>1018</v>
+      </c>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
     </row>
     <row r="105">
       <c r="A105" s="6" t="s">
@@ -58471,6 +58492,15 @@
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
     </row>
     <row r="106">
       <c r="A106" s="6" t="s">
@@ -58494,6 +58524,15 @@
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="K106" s="11"/>
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="11"/>
     </row>
     <row r="107">
       <c r="A107" s="6" t="s">
@@ -58517,6 +58556,15 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="K107" s="11"/>
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="11"/>
     </row>
     <row r="108">
       <c r="A108" s="6" t="s">
@@ -58540,6 +58588,13 @@
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
+      <c r="H108" s="11"/>
+      <c r="I108" s="11"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="11"/>
+      <c r="L108" s="11"/>
+      <c r="M108" s="11"/>
+      <c r="N108" s="11"/>
     </row>
     <row r="109">
       <c r="A109" s="6" t="s">
@@ -58563,6 +58618,15 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J109" s="11"/>
+      <c r="K109" s="11"/>
+      <c r="L109" s="11"/>
+      <c r="M109" s="11"/>
+      <c r="N109" s="11"/>
     </row>
     <row r="110">
       <c r="A110" s="6" t="s">
@@ -58586,6 +58650,15 @@
         <f t="shared" si="2"/>
         <v>500</v>
       </c>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11"/>
+      <c r="J110" s="11" t="s">
+        <v>1065</v>
+      </c>
+      <c r="K110" s="11"/>
+      <c r="L110" s="11"/>
+      <c r="M110" s="11"/>
+      <c r="N110" s="11"/>
     </row>
     <row r="111">
       <c r="A111" s="6" t="s">
